--- a/matlab/第三问/第三问数据.xlsx
+++ b/matlab/第三问/第三问数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7335"/>
+    <workbookView windowWidth="8430" windowHeight="6915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,36 +145,7 @@
     <t>年</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>注：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>199</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5年长江总流量9205亿立方米，废水排放总量174亿吨</t>
-    </r>
+    <t>注：1995年长江总流量9205亿立方米，废水排放总量174亿吨</t>
   </si>
   <si>
     <t>1996年长江流域水质报告表</t>
@@ -539,8 +510,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -603,28 +574,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -640,23 +589,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,10 +605,49 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,30 +660,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,13 +689,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -738,11 +709,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -755,7 +726,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,97 +822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,7 +840,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,7 +870,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,43 +900,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1267,56 +1238,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1361,153 +1284,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2029,13 +2000,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P150"/>
+  <dimension ref="A1:P154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="B151" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="9.375"/>
+    <col min="7" max="7" width="9.375"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -2566,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="68.25" spans="1:1">
+    <row r="15" ht="77" customHeight="1" spans="1:1">
       <c r="A15" s="14" t="s">
         <v>25</v>
       </c>
@@ -4428,7 +4404,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" ht="15" spans="1:15">
       <c r="A67" s="11" t="s">
         <v>20</v>
       </c>
@@ -4475,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" ht="15" spans="1:15">
       <c r="A68" s="39"/>
       <c r="B68" s="9" t="s">
         <v>32</v>
@@ -4567,7 +4543,7 @@
         <v>4.1</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" ht="15" spans="1:15">
       <c r="A70" s="11" t="s">
         <v>24</v>
       </c>
@@ -4614,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" ht="15" spans="1:15">
       <c r="A71" s="39"/>
       <c r="B71" s="15" t="s">
         <v>32</v>
@@ -5179,7 +5155,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="86" ht="68.25" spans="1:1">
+    <row r="86" ht="84" customHeight="1" spans="1:1">
       <c r="A86" s="14" t="s">
         <v>42</v>
       </c>
@@ -7300,6 +7276,93 @@
     <row r="150" ht="90" spans="1:1">
       <c r="A150" s="61" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10">
+      <c r="B152">
+        <v>-0.1405</v>
+      </c>
+      <c r="C152">
+        <v>0.0018</v>
+      </c>
+      <c r="D152">
+        <v>89.0214</v>
+      </c>
+      <c r="E152">
+        <v>-0.1907</v>
+      </c>
+      <c r="F152">
+        <v>0.0008</v>
+      </c>
+      <c r="G152">
+        <v>113.2105</v>
+      </c>
+      <c r="H152">
+        <v>-0.1489</v>
+      </c>
+      <c r="I152">
+        <v>0.0016</v>
+      </c>
+      <c r="J152">
+        <v>96.8386</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10">
+      <c r="B153">
+        <v>-0.3123</v>
+      </c>
+      <c r="C153">
+        <v>0.0036</v>
+      </c>
+      <c r="D153">
+        <v>112.0766</v>
+      </c>
+      <c r="E153">
+        <v>-0.2428</v>
+      </c>
+      <c r="F153">
+        <v>0.002</v>
+      </c>
+      <c r="G153">
+        <v>116.026</v>
+      </c>
+      <c r="H153">
+        <v>-0.1846</v>
+      </c>
+      <c r="I153">
+        <v>0.0039</v>
+      </c>
+      <c r="J153">
+        <v>85.1549</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10">
+      <c r="B154">
+        <v>-0.0419</v>
+      </c>
+      <c r="C154">
+        <v>0.0005</v>
+      </c>
+      <c r="D154">
+        <v>76.4087</v>
+      </c>
+      <c r="E154">
+        <v>-0.148</v>
+      </c>
+      <c r="F154">
+        <v>0.0001</v>
+      </c>
+      <c r="G154">
+        <v>109.1528</v>
+      </c>
+      <c r="H154">
+        <v>-0.1015</v>
+      </c>
+      <c r="I154">
+        <v>0.0002</v>
+      </c>
+      <c r="J154">
+        <v>97.4869</v>
       </c>
     </row>
   </sheetData>
